--- a/hardware/alto_bom.xlsx
+++ b/hardware/alto_bom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liaochikon\Desktop\alto3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liaochikon\Desktop\alto3\ALTO-3D-Printed-Desktop-6-Axis-Robotic-Arm\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117C8E2D-2498-47B2-B8BE-0816FB12D5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C926C711-B5B1-4507-9CB1-EF29905FFC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
-  <si>
-    <t>Parts List</t>
-  </si>
-  <si>
-    <t>Part Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="91">
   <si>
     <t>Base_upper_frame</t>
   </si>
@@ -80,9 +74,6 @@
   </si>
   <si>
     <t>Hex_m3x15</t>
-  </si>
-  <si>
-    <t>M3_nut</t>
   </si>
   <si>
     <t>Hex_m3x10</t>
@@ -181,10 +172,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>42型步進馬達 驅動板</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?spm=2013.1.w4023-23494047119.4.1f9c1c5aKUlyCU&amp;id=673302946671</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -273,10 +260,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>35型步進馬達 驅動板</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Emm35_V5.0 CAN套餐</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -289,89 +272,84 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>主控版</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>can收發器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>步進馬達驅動板</t>
-  </si>
-  <si>
-    <t>步進馬達驅動板</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>電供</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>42型步進馬達</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>35型步進馬達</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>諧波齒輪箱 11型 50減速比</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>諧波齒輪箱 11型 30減速比</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>諧波齒輪箱 8型 30減速比</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>交叉滾子軸承</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>微動限位開關</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5mm鋼軸 30mm長</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>GT2皮帶輪 20齒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>GT2時規皮帶</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>列印件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>M3螺母</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>M4螺母</t>
-  </si>
-  <si>
-    <t>M8螺母</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>M3內六角螺絲</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>M4內六角螺絲</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2.5平頭螺絲</t>
+    <t>main board</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>can transceiver</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stepper driver</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>power supply</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stepper motor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parts Name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part Detail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gearbox</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bearings</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D printed part</t>
+  </si>
+  <si>
+    <t>3D printed part</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3_nut</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>nut</t>
+  </si>
+  <si>
+    <t>screw</t>
+  </si>
+  <si>
+    <t>limit switch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaft</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulley</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>timing belt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nema14 stepper driver</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nema17 stepper driver</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop Page</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1359,461 +1337,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.875" customWidth="1"/>
-    <col min="2" max="5" width="22.375" customWidth="1"/>
+    <col min="2" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="55.5" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="3">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>74</v>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
         <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="E11" t="s">
-        <v>54</v>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24">
         <v>4</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35">
         <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1821,10 +1813,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1832,10 +1824,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1843,10 +1835,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1854,10 +1846,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1865,7 +1857,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -1876,10 +1868,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1887,10 +1879,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1898,59 +1890,48 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://shopee.tw/-%E7%89%A9%E8%81%AF%E6%B1%AA%E6%B1%AA-%E9%99%84%E7%99%BC%E7%A5%A8~-%E5%8E%9F%E5%BB%A0STM32F407-STM32F407G-DISC1-STM32F4Discovery%E9%96%8B%E7%99%BC%E6%9D%BF-i.9340697.59603032?sp_atk=b58019e4-4921-4de0-91b2-fc02b6a639a0&amp;xptdk=b58019e4-4921-4de0-91b2-fc02b6a639a0" xr:uid="{2D830CBB-ADC8-451F-B26D-DFBD743A8F64}"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://shopee.tw/%E6%B2%85%E5%AE%87%E9%9B%BB%E5%AD%90230-%E7%B8%BD%E7%B7%9A%E6%94%B6%E7%99%BC%E5%99%A8-SN65HVD230-CAN%E9%80%9A%E4%BF%A1%E6%A8%A1%E5%A1%8A-i.9134513.21525896515?sp_atk=4fe782de-4e8c-4fe3-872b-6185307efa6c&amp;xptdk=4fe782de-4e8c-4fe3-872b-6185307efa6c" xr:uid="{45934839-7640-407C-A497-33B234693D0F}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{C48F28FD-9AE1-478E-8C81-277EF256BA0D}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{B9B584D5-61EF-4BA5-BDFD-40ABE661169E}"/>
-    <hyperlink ref="D17" r:id="rId5" xr:uid="{3EDC6E41-A133-4896-B9F9-9598F586552B}"/>
-    <hyperlink ref="D21" r:id="rId6" xr:uid="{53381F29-026E-4439-8124-5541403DA92C}"/>
-    <hyperlink ref="D22" r:id="rId7" xr:uid="{9B271A44-32FF-4265-9C94-B226063CCD8A}"/>
-    <hyperlink ref="D7" r:id="rId8" xr:uid="{2A399F98-A8E9-480E-AA60-CA70BE1F9EA8}"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://shopee.tw/-%E7%89%A9%E8%81%AF%E6%B1%AA%E6%B1%AA-%E9%99%84%E7%99%BC%E7%A5%A8~-%E5%8E%9F%E5%BB%A0STM32F407-STM32F407G-DISC1-STM32F4Discovery%E9%96%8B%E7%99%BC%E6%9D%BF-i.9340697.59603032?sp_atk=b58019e4-4921-4de0-91b2-fc02b6a639a0&amp;xptdk=b58019e4-4921-4de0-91b2-fc02b6a639a0" xr:uid="{2D830CBB-ADC8-451F-B26D-DFBD743A8F64}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://shopee.tw/%E6%B2%85%E5%AE%87%E9%9B%BB%E5%AD%90230-%E7%B8%BD%E7%B7%9A%E6%94%B6%E7%99%BC%E5%99%A8-SN65HVD230-CAN%E9%80%9A%E4%BF%A1%E6%A8%A1%E5%A1%8A-i.9134513.21525896515?sp_atk=4fe782de-4e8c-4fe3-872b-6185307efa6c&amp;xptdk=4fe782de-4e8c-4fe3-872b-6185307efa6c" xr:uid="{45934839-7640-407C-A497-33B234693D0F}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{C48F28FD-9AE1-478E-8C81-277EF256BA0D}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{B9B584D5-61EF-4BA5-BDFD-40ABE661169E}"/>
+    <hyperlink ref="D16" r:id="rId5" xr:uid="{3EDC6E41-A133-4896-B9F9-9598F586552B}"/>
+    <hyperlink ref="D20" r:id="rId6" xr:uid="{53381F29-026E-4439-8124-5541403DA92C}"/>
+    <hyperlink ref="D21" r:id="rId7" xr:uid="{9B271A44-32FF-4265-9C94-B226063CCD8A}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{2A399F98-A8E9-480E-AA60-CA70BE1F9EA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
